--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H2">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I2">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J2">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.588706382518</v>
+        <v>121.2130545</v>
       </c>
       <c r="N2">
-        <v>119.588706382518</v>
+        <v>242.426109</v>
       </c>
       <c r="O2">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="P2">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
       <c r="Q2">
-        <v>180.7656853471743</v>
+        <v>184.7322102365805</v>
       </c>
       <c r="R2">
-        <v>180.7656853471743</v>
+        <v>738.928840946322</v>
       </c>
       <c r="S2">
-        <v>0.04595533195256452</v>
+        <v>0.04282793315427706</v>
       </c>
       <c r="T2">
-        <v>0.04595533195256452</v>
+        <v>0.02766503044701819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H3">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I3">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J3">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.775144660923028</v>
+        <v>0.9119573333333332</v>
       </c>
       <c r="N3">
-        <v>0.775144660923028</v>
+        <v>2.735872</v>
       </c>
       <c r="O3">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="P3">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
       <c r="Q3">
-        <v>1.171678832504183</v>
+        <v>1.389849422762667</v>
       </c>
       <c r="R3">
-        <v>1.171678832504183</v>
+        <v>8.339096536575999</v>
       </c>
       <c r="S3">
-        <v>0.0002978711893582554</v>
+        <v>0.0003222198126485853</v>
       </c>
       <c r="T3">
-        <v>0.0002978711893582554</v>
+        <v>0.0003122105225850262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H4">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I4">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J4">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.651916773333325</v>
+        <v>0.7040186666666667</v>
       </c>
       <c r="N4">
-        <v>0.651916773333325</v>
+        <v>2.112056</v>
       </c>
       <c r="O4">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="P4">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
       <c r="Q4">
-        <v>0.9854123009239606</v>
+        <v>1.072944864541333</v>
       </c>
       <c r="R4">
-        <v>0.9854123009239606</v>
+        <v>6.437669187248</v>
       </c>
       <c r="S4">
-        <v>0.0002505173994285907</v>
+        <v>0.0002487493159852948</v>
       </c>
       <c r="T4">
-        <v>0.0002505173994285907</v>
+        <v>0.0002410222800952823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H5">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I5">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J5">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.659732534421166</v>
+        <v>0.6855039999999999</v>
       </c>
       <c r="N5">
-        <v>0.659732534421166</v>
+        <v>2.056512</v>
       </c>
       <c r="O5">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="P5">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
       <c r="Q5">
-        <v>0.9972263045392709</v>
+        <v>1.044727975616</v>
       </c>
       <c r="R5">
-        <v>0.9972263045392709</v>
+        <v>6.268367853696</v>
       </c>
       <c r="S5">
-        <v>0.0002535208259737764</v>
+        <v>0.0002422075708766958</v>
       </c>
       <c r="T5">
-        <v>0.0002535208259737764</v>
+        <v>0.0002346837447886368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H6">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I6">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J6">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.7709768000793</v>
+        <v>88.26666266666666</v>
       </c>
       <c r="N6">
-        <v>81.7709768000793</v>
+        <v>264.799988</v>
       </c>
       <c r="O6">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="P6">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
       <c r="Q6">
-        <v>123.6018609942505</v>
+        <v>134.5209536372173</v>
       </c>
       <c r="R6">
-        <v>123.6018609942505</v>
+        <v>807.125721823304</v>
       </c>
       <c r="S6">
-        <v>0.03142280317769564</v>
+        <v>0.03118705938096068</v>
       </c>
       <c r="T6">
-        <v>0.03142280317769564</v>
+        <v>0.03021827871844468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H7">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I7">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J7">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.0254285674029</v>
+        <v>43.794673</v>
       </c>
       <c r="N7">
-        <v>41.0254285674029</v>
+        <v>87.58934600000001</v>
       </c>
       <c r="O7">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="P7">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
       <c r="Q7">
-        <v>62.01245866752038</v>
+        <v>66.744351697517</v>
       </c>
       <c r="R7">
-        <v>62.01245866752038</v>
+        <v>266.977406790068</v>
       </c>
       <c r="S7">
-        <v>0.01576517754344428</v>
+        <v>0.01547387231098464</v>
       </c>
       <c r="T7">
-        <v>0.01576517754344428</v>
+        <v>0.009995465974848487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H8">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J8">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>119.588706382518</v>
+        <v>121.2130545</v>
       </c>
       <c r="N8">
-        <v>119.588706382518</v>
+        <v>242.426109</v>
       </c>
       <c r="O8">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="P8">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
       <c r="Q8">
-        <v>938.0175284519547</v>
+        <v>1030.659450781688</v>
       </c>
       <c r="R8">
-        <v>938.0175284519547</v>
+        <v>6183.956704690126</v>
       </c>
       <c r="S8">
-        <v>0.2384684173577724</v>
+        <v>0.2389459532063849</v>
       </c>
       <c r="T8">
-        <v>0.2384684173577724</v>
+        <v>0.2315234445297857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H9">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J9">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.775144660923028</v>
+        <v>0.9119573333333332</v>
       </c>
       <c r="N9">
-        <v>0.775144660923028</v>
+        <v>2.735872</v>
       </c>
       <c r="O9">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="P9">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
       <c r="Q9">
-        <v>6.079999533618484</v>
+        <v>7.754259210666667</v>
       </c>
       <c r="R9">
-        <v>6.079999533618484</v>
+        <v>69.788332896</v>
       </c>
       <c r="S9">
-        <v>0.001545693787525269</v>
+        <v>0.001797731401091672</v>
       </c>
       <c r="T9">
-        <v>0.001545693787525269</v>
+        <v>0.002612831232763768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H10">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J10">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.651916773333325</v>
+        <v>0.7040186666666667</v>
       </c>
       <c r="N10">
-        <v>0.651916773333325</v>
+        <v>2.112056</v>
       </c>
       <c r="O10">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="P10">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
       <c r="Q10">
-        <v>5.113437371941434</v>
+        <v>5.986182720333335</v>
       </c>
       <c r="R10">
-        <v>5.113437371941434</v>
+        <v>53.875644483</v>
       </c>
       <c r="S10">
-        <v>0.001299968583057686</v>
+        <v>0.001387824208173509</v>
       </c>
       <c r="T10">
-        <v>0.001299968583057686</v>
+        <v>0.002017070199975041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H11">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J11">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.659732534421166</v>
+        <v>0.6855039999999999</v>
       </c>
       <c r="N11">
-        <v>0.659732534421166</v>
+        <v>2.056512</v>
       </c>
       <c r="O11">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="P11">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
       <c r="Q11">
-        <v>5.174741830534184</v>
+        <v>5.828754824</v>
       </c>
       <c r="R11">
-        <v>5.174741830534184</v>
+        <v>52.458793416</v>
       </c>
       <c r="S11">
-        <v>0.001315553768594373</v>
+        <v>0.001351326450624092</v>
       </c>
       <c r="T11">
-        <v>0.001315553768594373</v>
+        <v>0.001964024188322218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H12">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J12">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.7709768000793</v>
+        <v>88.26666266666666</v>
       </c>
       <c r="N12">
-        <v>81.7709768000793</v>
+        <v>264.799988</v>
       </c>
       <c r="O12">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="P12">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
       <c r="Q12">
-        <v>641.3867318856226</v>
+        <v>750.5203993218335</v>
       </c>
       <c r="R12">
-        <v>641.3867318856226</v>
+        <v>6754.6835938965</v>
       </c>
       <c r="S12">
-        <v>0.1630571649545378</v>
+        <v>0.1739990955118873</v>
       </c>
       <c r="T12">
-        <v>0.1630571649545378</v>
+        <v>0.2528910998328398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H13">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J13">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.0254285674029</v>
+        <v>43.794673</v>
       </c>
       <c r="N13">
-        <v>41.0254285674029</v>
+        <v>87.58934600000001</v>
       </c>
       <c r="O13">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="P13">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
       <c r="Q13">
-        <v>321.7910141563588</v>
+        <v>372.3806301848751</v>
       </c>
       <c r="R13">
-        <v>321.7910141563588</v>
+        <v>2234.28378110925</v>
       </c>
       <c r="S13">
-        <v>0.08180763316060982</v>
+        <v>0.0863319543304383</v>
       </c>
       <c r="T13">
-        <v>0.08180763316060982</v>
+        <v>0.08365017767137947</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H14">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I14">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J14">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>119.588706382518</v>
+        <v>121.2130545</v>
       </c>
       <c r="N14">
-        <v>119.588706382518</v>
+        <v>242.426109</v>
       </c>
       <c r="O14">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="P14">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
       <c r="Q14">
-        <v>46.02134619644572</v>
+        <v>47.1591913881215</v>
       </c>
       <c r="R14">
-        <v>46.02134619644572</v>
+        <v>282.955148328729</v>
       </c>
       <c r="S14">
-        <v>0.01169982144177241</v>
+        <v>0.01093328929369504</v>
       </c>
       <c r="T14">
-        <v>0.01169982144177241</v>
+        <v>0.01059366255569321</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H15">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I15">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J15">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.775144660923028</v>
+        <v>0.9119573333333332</v>
       </c>
       <c r="N15">
-        <v>0.775144660923028</v>
+        <v>2.735872</v>
       </c>
       <c r="O15">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="P15">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
       <c r="Q15">
-        <v>0.2982990774944955</v>
+        <v>0.3548064240924444</v>
       </c>
       <c r="R15">
-        <v>0.2982990774944955</v>
+        <v>3.193257816832</v>
       </c>
       <c r="S15">
-        <v>7.58353727427593E-05</v>
+        <v>8.225758677535848E-05</v>
       </c>
       <c r="T15">
-        <v>7.58353727427593E-05</v>
+        <v>0.0001195535616321322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H16">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I16">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J16">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.651916773333325</v>
+        <v>0.7040186666666667</v>
       </c>
       <c r="N16">
-        <v>0.651916773333325</v>
+        <v>2.112056</v>
       </c>
       <c r="O16">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="P16">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
       <c r="Q16">
-        <v>0.2508772644540339</v>
+        <v>0.2739057371262222</v>
       </c>
       <c r="R16">
-        <v>0.2508772644540339</v>
+        <v>2.465151634136</v>
       </c>
       <c r="S16">
-        <v>6.377951625715818E-05</v>
+        <v>6.350173900475481E-05</v>
       </c>
       <c r="T16">
-        <v>6.377951625715818E-05</v>
+        <v>9.229372469417962E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H17">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I17">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J17">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.659732534421166</v>
+        <v>0.6855039999999999</v>
       </c>
       <c r="N17">
-        <v>0.659732534421166</v>
+        <v>2.056512</v>
       </c>
       <c r="O17">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="P17">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
       <c r="Q17">
-        <v>0.2538850053828615</v>
+        <v>0.2667024147413333</v>
       </c>
       <c r="R17">
-        <v>0.2538850053828615</v>
+        <v>2.400321732672</v>
       </c>
       <c r="S17">
-        <v>6.45441621164988E-05</v>
+        <v>6.183173565669959E-05</v>
       </c>
       <c r="T17">
-        <v>6.45441621164988E-05</v>
+        <v>8.986653401153979E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H18">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I18">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J18">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>81.7709768000793</v>
+        <v>88.26666266666666</v>
       </c>
       <c r="N18">
-        <v>81.7709768000793</v>
+        <v>264.799988</v>
       </c>
       <c r="O18">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="P18">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
       <c r="Q18">
-        <v>31.46794163071658</v>
+        <v>34.34105719931422</v>
       </c>
       <c r="R18">
-        <v>31.46794163071658</v>
+        <v>309.069514793828</v>
       </c>
       <c r="S18">
-        <v>0.007999968028921651</v>
+        <v>0.007961559601846829</v>
       </c>
       <c r="T18">
-        <v>0.007999968028921651</v>
+        <v>0.01157136799000314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H19">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I19">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J19">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.0254285674029</v>
+        <v>43.794673</v>
       </c>
       <c r="N19">
-        <v>41.0254285674029</v>
+        <v>87.58934600000001</v>
       </c>
       <c r="O19">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="P19">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
       <c r="Q19">
-        <v>15.78782401842258</v>
+        <v>17.03877007560434</v>
       </c>
       <c r="R19">
-        <v>15.78782401842258</v>
+        <v>102.232620453626</v>
       </c>
       <c r="S19">
-        <v>0.004013674897322663</v>
+        <v>0.003950233177498015</v>
       </c>
       <c r="T19">
-        <v>0.004013674897322663</v>
+        <v>0.003827524926359549</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H20">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I20">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J20">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>119.588706382518</v>
+        <v>121.2130545</v>
       </c>
       <c r="N20">
-        <v>119.588706382518</v>
+        <v>242.426109</v>
       </c>
       <c r="O20">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="P20">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
       <c r="Q20">
-        <v>51.92737682207797</v>
+        <v>54.3283779008755</v>
       </c>
       <c r="R20">
-        <v>51.92737682207797</v>
+        <v>325.970267405253</v>
       </c>
       <c r="S20">
-        <v>0.01320128781467207</v>
+        <v>0.01259537865182892</v>
       </c>
       <c r="T20">
-        <v>0.01320128781467207</v>
+        <v>0.01220412152412397</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H21">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I21">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J21">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.775144660923028</v>
+        <v>0.9119573333333332</v>
       </c>
       <c r="N21">
-        <v>0.775144660923028</v>
+        <v>2.735872</v>
       </c>
       <c r="O21">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="P21">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
       <c r="Q21">
-        <v>0.3365805193228182</v>
+        <v>0.4087444445582222</v>
       </c>
       <c r="R21">
-        <v>0.3365805193228182</v>
+        <v>3.678700001023999</v>
       </c>
       <c r="S21">
-        <v>8.556750947802856E-05</v>
+        <v>9.476246576762489E-05</v>
       </c>
       <c r="T21">
-        <v>8.556750947802856E-05</v>
+        <v>0.0001377282112895195</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H22">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I22">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J22">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.651916773333325</v>
+        <v>0.7040186666666667</v>
       </c>
       <c r="N22">
-        <v>0.651916773333325</v>
+        <v>2.112056</v>
       </c>
       <c r="O22">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="P22">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
       <c r="Q22">
-        <v>0.2830729503606491</v>
+        <v>0.3155451558391111</v>
       </c>
       <c r="R22">
-        <v>0.2830729503606491</v>
+        <v>2.839906402552</v>
       </c>
       <c r="S22">
-        <v>7.196449578154848E-05</v>
+        <v>7.315533562948369E-05</v>
       </c>
       <c r="T22">
-        <v>7.196449578154848E-05</v>
+        <v>0.0001063243072129461</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H23">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I23">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J23">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.659732534421166</v>
+        <v>0.6855039999999999</v>
       </c>
       <c r="N23">
-        <v>0.659732534421166</v>
+        <v>2.056512</v>
       </c>
       <c r="O23">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="P23">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
       <c r="Q23">
-        <v>0.2864666819548474</v>
+        <v>0.3072467773226666</v>
       </c>
       <c r="R23">
-        <v>0.2864666819548474</v>
+        <v>2.765220995904</v>
       </c>
       <c r="S23">
-        <v>7.282727049274302E-05</v>
+        <v>7.123145673507745E-05</v>
       </c>
       <c r="T23">
-        <v>7.282727049274302E-05</v>
+        <v>0.0001035281326229561</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H24">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I24">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J24">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>81.7709768000793</v>
+        <v>88.26666266666666</v>
       </c>
       <c r="N24">
-        <v>81.7709768000793</v>
+        <v>264.799988</v>
       </c>
       <c r="O24">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="P24">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
       <c r="Q24">
-        <v>35.50629866189299</v>
+        <v>39.56161838495511</v>
       </c>
       <c r="R24">
-        <v>35.50629866189299</v>
+        <v>356.054565464596</v>
       </c>
       <c r="S24">
-        <v>0.009026623268018919</v>
+        <v>0.009171883698549306</v>
       </c>
       <c r="T24">
-        <v>0.009026623268018919</v>
+        <v>0.01333045869716355</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H25">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I25">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J25">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.0254285674029</v>
+        <v>43.794673</v>
       </c>
       <c r="N25">
-        <v>41.0254285674029</v>
+        <v>87.58934600000001</v>
       </c>
       <c r="O25">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="P25">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
       <c r="Q25">
-        <v>17.81391364576375</v>
+        <v>19.62902060841367</v>
       </c>
       <c r="R25">
-        <v>17.81391364576375</v>
+        <v>117.774123650482</v>
       </c>
       <c r="S25">
-        <v>0.004528759500970128</v>
+        <v>0.004550751498206232</v>
       </c>
       <c r="T25">
-        <v>0.004528759500970128</v>
+        <v>0.004409389018418563</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H26">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I26">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J26">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>119.588706382518</v>
+        <v>121.2130545</v>
       </c>
       <c r="N26">
-        <v>119.588706382518</v>
+        <v>242.426109</v>
       </c>
       <c r="O26">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="P26">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
       <c r="Q26">
-        <v>152.677727333421</v>
+        <v>156.9715116427725</v>
       </c>
       <c r="R26">
-        <v>152.677727333421</v>
+        <v>941.829069856635</v>
       </c>
       <c r="S26">
-        <v>0.03881464354197008</v>
+        <v>0.03639195026764883</v>
       </c>
       <c r="T26">
-        <v>0.03881464354197008</v>
+        <v>0.03526148723617542</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H27">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I27">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J27">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.775144660923028</v>
+        <v>0.9119573333333332</v>
       </c>
       <c r="N27">
-        <v>0.775144660923028</v>
+        <v>2.735872</v>
       </c>
       <c r="O27">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="P27">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
       <c r="Q27">
-        <v>0.9896195783389096</v>
+        <v>1.180989306453333</v>
       </c>
       <c r="R27">
-        <v>0.9896195783389096</v>
+        <v>10.62890375808</v>
       </c>
       <c r="S27">
-        <v>0.0002515869986163412</v>
+        <v>0.0002737981157044789</v>
       </c>
       <c r="T27">
-        <v>0.0002515869986163412</v>
+        <v>0.0003979394628975779</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H28">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I28">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J28">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.651916773333325</v>
+        <v>0.7040186666666667</v>
       </c>
       <c r="N28">
-        <v>0.651916773333325</v>
+        <v>2.112056</v>
       </c>
       <c r="O28">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="P28">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
       <c r="Q28">
-        <v>0.8322957440872459</v>
+        <v>0.9117076934266667</v>
       </c>
       <c r="R28">
-        <v>0.8322957440872459</v>
+        <v>8.20536924084</v>
       </c>
       <c r="S28">
-        <v>0.0002115911940298683</v>
+        <v>0.0002113684240572435</v>
       </c>
       <c r="T28">
-        <v>0.0002115911940298683</v>
+        <v>0.0003072038568506155</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H29">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I29">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J29">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.659732534421166</v>
+        <v>0.6855039999999999</v>
       </c>
       <c r="N29">
-        <v>0.659732534421166</v>
+        <v>2.056512</v>
       </c>
       <c r="O29">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="P29">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
       <c r="Q29">
-        <v>0.8422740495340467</v>
+        <v>0.8877311075199998</v>
       </c>
       <c r="R29">
-        <v>0.8422740495340467</v>
+        <v>7.989579967679999</v>
       </c>
       <c r="S29">
-        <v>0.0002141279384249736</v>
+        <v>0.0002058097420214284</v>
       </c>
       <c r="T29">
-        <v>0.0002141279384249736</v>
+        <v>0.0002991248423619321</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H30">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I30">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J30">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>81.7709768000793</v>
+        <v>88.26666266666666</v>
       </c>
       <c r="N30">
-        <v>81.7709768000793</v>
+        <v>264.799988</v>
       </c>
       <c r="O30">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="P30">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
       <c r="Q30">
-        <v>104.3962032646843</v>
+        <v>114.3057694866467</v>
       </c>
       <c r="R30">
-        <v>104.3962032646843</v>
+        <v>1028.75192537982</v>
       </c>
       <c r="S30">
-        <v>0.02654022618508531</v>
+        <v>0.02650041294072553</v>
       </c>
       <c r="T30">
-        <v>0.02654022618508531</v>
+        <v>0.03851582420522784</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H31">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I31">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J31">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>41.0254285674029</v>
+        <v>43.794673</v>
       </c>
       <c r="N31">
-        <v>41.0254285674029</v>
+        <v>87.58934600000001</v>
       </c>
       <c r="O31">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="P31">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
       <c r="Q31">
-        <v>52.37676187010189</v>
+        <v>56.714320508365</v>
       </c>
       <c r="R31">
-        <v>52.37676187010189</v>
+        <v>340.28592305019</v>
       </c>
       <c r="S31">
-        <v>0.01331553316503708</v>
+        <v>0.01314853064612725</v>
       </c>
       <c r="T31">
-        <v>0.01331553316503708</v>
+        <v>0.01274009065584579</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H32">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I32">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J32">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>119.588706382518</v>
+        <v>121.2130545</v>
       </c>
       <c r="N32">
-        <v>119.588706382518</v>
+        <v>242.426109</v>
       </c>
       <c r="O32">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="P32">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
       <c r="Q32">
-        <v>554.7508341545596</v>
+        <v>571.8639182553345</v>
       </c>
       <c r="R32">
-        <v>554.7508341545596</v>
+        <v>2287.455673021338</v>
       </c>
       <c r="S32">
-        <v>0.1410320696960385</v>
+        <v>0.1325797468292976</v>
       </c>
       <c r="T32">
-        <v>0.1410320696960385</v>
+        <v>0.08564089981830446</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H33">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I33">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J33">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.775144660923028</v>
+        <v>0.9119573333333332</v>
       </c>
       <c r="N33">
-        <v>0.775144660923028</v>
+        <v>2.735872</v>
       </c>
       <c r="O33">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="P33">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
       <c r="Q33">
-        <v>3.595758832460823</v>
+        <v>4.302469697450666</v>
       </c>
       <c r="R33">
-        <v>3.595758832460823</v>
+        <v>25.814818184704</v>
       </c>
       <c r="S33">
-        <v>0.0009141352820903958</v>
+        <v>0.0009974756668841697</v>
       </c>
       <c r="T33">
-        <v>0.0009141352820903958</v>
+        <v>0.0009664905353395916</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H34">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I34">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J34">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.651916773333325</v>
+        <v>0.7040186666666667</v>
       </c>
       <c r="N34">
-        <v>0.651916773333325</v>
+        <v>2.112056</v>
       </c>
       <c r="O34">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="P34">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
       <c r="Q34">
-        <v>3.024126481051046</v>
+        <v>3.321448130365333</v>
       </c>
       <c r="R34">
-        <v>3.024126481051046</v>
+        <v>19.928688782192</v>
       </c>
       <c r="S34">
-        <v>0.0007688114922715008</v>
+        <v>0.0007700376578643709</v>
       </c>
       <c r="T34">
-        <v>0.0007688114922715008</v>
+        <v>0.0007461175574395283</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H35">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I35">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J35">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.659732534421166</v>
+        <v>0.6855039999999999</v>
       </c>
       <c r="N35">
-        <v>0.659732534421166</v>
+        <v>2.056512</v>
       </c>
       <c r="O35">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="P35">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
       <c r="Q35">
-        <v>3.060382412854205</v>
+        <v>3.234098876864</v>
       </c>
       <c r="R35">
-        <v>3.060382412854205</v>
+        <v>19.404593261184</v>
       </c>
       <c r="S35">
-        <v>0.0007780286917530491</v>
+        <v>0.0007497867877792885</v>
       </c>
       <c r="T35">
-        <v>0.0007780286917530491</v>
+        <v>0.0007264957511946079</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H36">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I36">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J36">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>81.7709768000793</v>
+        <v>88.26666266666666</v>
       </c>
       <c r="N36">
-        <v>81.7709768000793</v>
+        <v>264.799988</v>
       </c>
       <c r="O36">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="P36">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
       <c r="Q36">
-        <v>379.321082748232</v>
+        <v>416.4280800619693</v>
       </c>
       <c r="R36">
-        <v>379.321082748232</v>
+        <v>2498.568480371816</v>
       </c>
       <c r="S36">
-        <v>0.09643327073289404</v>
+        <v>0.09654382391472267</v>
       </c>
       <c r="T36">
-        <v>0.09643327073289404</v>
+        <v>0.09354483037219485</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H37">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I37">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J37">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>41.0254285674029</v>
+        <v>43.794673</v>
       </c>
       <c r="N37">
-        <v>41.0254285674029</v>
+        <v>87.58934600000001</v>
       </c>
       <c r="O37">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="P37">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
       <c r="Q37">
-        <v>190.3096990322662</v>
+        <v>206.616303860993</v>
       </c>
       <c r="R37">
-        <v>190.3096990322662</v>
+        <v>826.4652154439721</v>
       </c>
       <c r="S37">
-        <v>0.04838166810267983</v>
+        <v>0.04790149611164098</v>
       </c>
       <c r="T37">
-        <v>0.04838166810267983</v>
+        <v>0.03094233718009642</v>
       </c>
     </row>
   </sheetData>
